--- a/src/OfficeExtractorLibrary/OLE 예외.xlsx
+++ b/src/OfficeExtractorLibrary/OLE 예외.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkoo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openNetLink\Library\OfficeExtractorLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5888F881-9745-44E4-BC7D-ABAF281C4C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93319ADB-0A7B-4890-9836-A33ABDB97DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-2380" windowWidth="25820" windowHeight="15620" xr2:uid="{F35B749F-1882-40C2-BCEE-0FE07A549534}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F35B749F-1882-40C2-BCEE-0FE07A549534}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Exception</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,11 +93,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공통</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Error Code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEObjectTypeNotSupported</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathTooLongException</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DocumentCorrupt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 Path 가 너무 길때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원하지 않는 OLE 객체 일때,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.docx, .pptx, .xlsx, .hwpx 의 파일일 경우 내부 파일들 검사하여 첨부되지 않아야 할 파일 체크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통(알수없는 에러)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +153,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +172,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -152,23 +189,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -482,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D95A1A9-92EF-4CD0-8C1C-B49D22E94A94}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,84 +548,117 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>-7</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>-6</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>-5</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>-4</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>-3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
         <v>-1</v>
       </c>
     </row>

--- a/src/OfficeExtractorLibrary/OLE 예외.xlsx
+++ b/src/OfficeExtractorLibrary/OLE 예외.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openNetLink\Library\OfficeExtractorLibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\OpenNetLink\src\OfficeExtractorLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93319ADB-0A7B-4890-9836-A33ABDB97DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEBDC76-CD27-427C-B301-56BA3A8CE7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F35B749F-1882-40C2-BCEE-0FE07A549534}"/>
+    <workbookView xWindow="0" yWindow="2055" windowWidth="25605" windowHeight="15300" xr2:uid="{F35B749F-1882-40C2-BCEE-0FE07A549534}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Exception</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>공통(알수없는 에러)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XmlParsingException</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">.hml file xml Parsing Error </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -529,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D95A1A9-92EF-4CD0-8C1C-B49D22E94A94}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -552,113 +560,124 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>-9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-1</v>
       </c>
     </row>
